--- a/app/src/test/resources/Data.xlsx
+++ b/app/src/test/resources/Data.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC01D40-689E-458A-8747-4B8BCB2EDD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18600" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="login details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>brad.marple@climatepros.com</t>
   </si>
@@ -45,33 +25,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -79,27 +394,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -140,20 +742,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -181,31 +783,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,23 +818,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -261,179 +829,193 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.8666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.152380952381" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B6ED10FC-FE7A-409E-B23E-7F8D1430C6F3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/app/src/test/resources/Data.xlsx
+++ b/app/src/test/resources/Data.xlsx
@@ -4,22 +4,83 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6825"/>
+    <workbookView windowWidth="18600" windowHeight="6825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login details" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>brad.marple@climatepros.com</t>
   </si>
   <si>
     <t>Cpi584687!</t>
+  </si>
+  <si>
+    <t>Climate Pros</t>
+  </si>
+  <si>
+    <t>ZZZZZZZZClimate Pros Corp 2</t>
+  </si>
+  <si>
+    <t>Carpentry Construction</t>
+  </si>
+  <si>
+    <t>Wakefern Food Corp - ShopRite/Price Rite</t>
+  </si>
+  <si>
+    <t>zzzzzShopRite #0217 - Wayne, NJ</t>
+  </si>
+  <si>
+    <t>Carpentry Service</t>
+  </si>
+  <si>
+    <t>Whole Foods Market</t>
+  </si>
+  <si>
+    <t>ZZZWFM # 10000-do not use</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>GPM Investments</t>
+  </si>
+  <si>
+    <t>ZZZ**DO NOT USE-INCORRECT ENTRY-GPM #5201 - Rockford, IL</t>
+  </si>
+  <si>
+    <t>Contract PM</t>
+  </si>
+  <si>
+    <t>Vixxo Corporation</t>
+  </si>
+  <si>
+    <t>ZZ*****DO NOT USE***7-Eleven#36023 - Rochester Hills, MI</t>
+  </si>
+  <si>
+    <t>CPU Training</t>
+  </si>
+  <si>
+    <t>Hill Phoenix (AZ)</t>
+  </si>
+  <si>
+    <t>ZX #0094 - Columbia, MO (HP)</t>
+  </si>
+  <si>
+    <t>Electrical Construction</t>
+  </si>
+  <si>
+    <t>Zumiez #0678 - Kapolei, HI (Oahu)</t>
+  </si>
+  <si>
+    <t>Electrical Service</t>
   </si>
 </sst>
 </file>
@@ -27,12 +88,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -48,6 +116,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -57,15 +132,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,26 +152,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,22 +207,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -180,6 +241,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,25 +269,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,25 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,79 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,24 +437,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,18 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,25 +464,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,17 +517,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,7 +563,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -504,40 +575,37 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,104 +614,105 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -996,21 +1065,21 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="28.8666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.152380952381" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.8666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.152380952381" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1018,4 +1087,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="42.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="61.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/app/src/test/resources/Data.xlsx
+++ b/app/src/test/resources/Data.xlsx
@@ -1,21 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="19200" windowHeight="6975" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="login details"/>
-    <sheet r:id="rId2" sheetId="2" name="Customer details"/>
+    <sheet name="login details" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer details" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>brad.marple@climatepros.com</t>
+  </si>
+  <si>
+    <t>Cpi584687!</t>
+  </si>
+  <si>
+    <t>Customer name</t>
+  </si>
+  <si>
+    <t>Customer Location</t>
+  </si>
+  <si>
+    <t>Customer Class</t>
+  </si>
   <si>
     <t>Climate Pros</t>
   </si>
@@ -75,50 +96,372 @@
   </si>
   <si>
     <t>Electrical Service</t>
-  </si>
-  <si>
-    <t>brad.marple@climatepros.com</t>
-  </si>
-  <si>
-    <t>Cpi584687!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -130,39 +473,316 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,10 +793,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -214,71 +834,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -306,7 +926,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -329,11 +949,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -342,13 +962,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -358,7 +978,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -367,7 +987,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -376,7 +996,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -384,10 +1004,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -447,192 +1067,195 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" style="3" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="28.8666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.152380952381" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
+    <row r="1" ht="19.5" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="brad.marple@climatepros.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" style="3" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="61.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="42.152380952381" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.8666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7238095238095" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="3:3">
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>